--- a/Data/Table/Student.xlsx
+++ b/Data/Table/Student.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\Test2\Data\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184E467F-3585-4E30-A325-CE3098DC29DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7901A34-E088-40BD-AAAD-2DEE3AB18D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>aaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,6 +101,30 @@
   </si>
   <si>
     <t>score4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MsgLabel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name_Confirm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,8 +168,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -430,106 +453,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>17</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="S3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -551,22 +670,22 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Table/Student.xlsx
+++ b/Data/Table/Student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7901A34-E088-40BD-AAAD-2DEE3AB18D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C6D184-E271-4261-8827-7F64ACF9C669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>aaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,7 +124,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name_Confirm</t>
+    <t>Lisa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhangsan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,7 +506,7 @@
       <c r="S1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -572,10 +580,10 @@
         <v>24</v>
       </c>
       <c r="T3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -583,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>18</v>
@@ -610,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -618,7 +626,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -645,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Table/Student.xlsx
+++ b/Data/Table/Student.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C6D184-E271-4261-8827-7F64ACF9C669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3956586F-2418-44EC-934B-08C345D650BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="300" windowWidth="29310" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -26,52 +26,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Student</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>score0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TypeA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,18 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>score3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>score4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,19 +76,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>speak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lisa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Zhangsan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lisi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StudentA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StudentB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StudentC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wangwu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,97 +475,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="R1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="S1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -577,68 +592,59 @@
         <v>7</v>
       </c>
       <c r="S3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T3" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
       <c r="S4" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="T4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -653,9 +659,6 @@
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -671,29 +674,29 @@
   <dimension ref="A3:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
